--- a/pred_ohlcv/54_21/2019-10-27 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 BCD ohlcv.xlsx
@@ -5878,7 +5878,7 @@
         <v>-63373.90026003004</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-62198.90026003004</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-71632.14256003004</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-65454.00546003004</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-70338.70796003006</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-71337.32846003007</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-88027.96046003005</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-88016.43706003005</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-98469.20936003006</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-96984.02566003006</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-96984.02566003006</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-93483.35798890007</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-92385.80058890008</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-91653.80058890008</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-81059.11837905008</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-81059.11837905008</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-82347.17007905008</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-81383.52047905007</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-81383.52047905007</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-81383.52047905007</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-82898.64327905007</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-82898.64327905007</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-82898.64327905007</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-83742.84637905008</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-83742.84637905008</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-82946.93577905008</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-82461.56636003008</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-81555.50765344007</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-81872.62945344007</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-81872.62945344007</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-81872.62945344007</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-55418.01094145006</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-59700.95924145007</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-65399.26094145006</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-64503.81484145006</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-64503.81484145006</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-61928.60284145006</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-61928.60284145006</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-64430.72084145006</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 BCD ohlcv.xlsx
@@ -5878,7 +5878,7 @@
         <v>-63373.90026003004</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-62198.90026003004</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-71632.14256003004</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-65454.00546003004</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-70338.70796003006</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-71337.32846003007</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-88027.96046003005</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-88016.43706003005</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-98469.20936003006</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-96984.02566003006</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-96984.02566003006</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-93737.15798890007</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-93208.80058890008</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-92385.80058890008</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-92385.80058890008</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-91653.80058890008</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-84216.34587905007</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-81059.11837905008</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-81059.11837905008</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-82347.17007905008</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-81383.52047905007</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-81383.52047905007</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-81383.52047905007</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-82898.64327905007</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-82898.64327905007</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-82898.64327905007</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-83742.84637905008</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-83742.84637905008</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-82946.93577905008</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-82461.56636003008</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-81555.50765344007</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-81872.62945344007</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-81872.62945344007</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-81872.62945344007</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-73064.57374145006</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-55418.01094145006</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-59700.95924145007</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-65399.26094145006</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-64503.81484145006</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-64503.81484145006</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-61200.92704145006</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-61928.60284145006</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-61928.60284145006</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-64430.72084145006</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
